--- a/quotation_excel_exporter/public/files/mẫu báo giá.xlsx
+++ b/quotation_excel_exporter/public/files/mẫu báo giá.xlsx
@@ -134,6 +134,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$đ-42A]"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <sz val="10.0"/>
@@ -251,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -279,6 +282,10 @@
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -656,21 +663,21 @@
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="9"/>
@@ -687,10 +694,10 @@
       <c r="N15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="9"/>
@@ -707,10 +714,10 @@
       <c r="N16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="9"/>
@@ -727,7 +734,7 @@
       <c r="N17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="9"/>
@@ -745,19 +752,19 @@
       <c r="N18" s="11"/>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -779,22 +786,22 @@
       <c r="J24" s="5"/>
     </row>
     <row r="26">
-      <c r="K26" s="16"/>
+      <c r="K26" s="18"/>
     </row>
     <row r="29">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="19" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -809,30 +816,30 @@
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="D2:H3"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="B9:H9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B29:G29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:M15"/>
     <mergeCell ref="B16:M16"/>
     <mergeCell ref="B17:M17"/>
+    <mergeCell ref="A18:M18"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A24:B24"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A7"/>

--- a/quotation_excel_exporter/public/files/mẫu báo giá.xlsx
+++ b/quotation_excel_exporter/public/files/mẫu báo giá.xlsx
@@ -666,155 +666,235 @@
       <c r="F14" s="13"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="15" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="15" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="16" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="17" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="17" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="17" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+    <row r="29">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="2" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="2" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="26">
-      <c r="K26" s="18"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="31">
+      <c r="K31" s="18"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B34" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="17" t="s">
+    <row r="35">
+      <c r="A35" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+    <row r="37">
+      <c r="A37" s="2" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="30">
     <mergeCell ref="D2:H3"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:D6"/>
@@ -822,24 +902,29 @@
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="A23:M23"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:M15"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="A7"/>
